--- a/FDYL.xlsx
+++ b/FDYL.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="复大医疗数据生成" sheetId="1" r:id="rId1"/>
     <sheet name="复大医疗Case" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="复大医疗额度" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="281">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,14 +174,6 @@
   </si>
   <si>
     <t>成功的复大医疗订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F002_每个月联系的distinct 手机号等于3个但有非手机号(有成功订单)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F002_每个月联系的distinct 手机号等于3个但有非手机号(有失败订单)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -243,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F003_每月被叫总时长正好一分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,843 +329,866 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>每月的主叫号码中有一个为户籍所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "records": [ { "Month": "1", "Num": "1", "CallType": "被叫", "PhoneNo": "户籍所在地" }, 
+{ "Month": "2", "Num": "1", "CallType": "被叫", "PhoneNo": "户籍所在地" }, 
+{ "Month": "3", "Num": "1", "CallType": "被叫", "PhoneNo": "户籍所在地" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F006_每月的主叫号码中有一个为户籍所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月的被叫号码中有一个为户籍所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F006_每月的被叫号码中有一个为户籍所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一个月没有通话记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一个月没有通话记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F006_有一个月没有通话记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F005_有一个月没有通话记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月的主叫号码中有一个为非户籍所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "records": [ { "Month": "1", "Num": "1", "CallType": "被叫", "PhoneNo": "非住宅所在地" }, 
+{ "Month": "2", "Num": "1", "CallType": "被叫", "PhoneNo": "住宅所在地" }, 
+{ "Month": "3", "Num": "1", "CallType": "被叫", "PhoneNo": "住宅所在地" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "records": [ { "Month": "1", "Num": "1", "CallType": "主叫", "PhoneNo": "非户籍所在地" }, 
+{ "Month": "2", "Num": "1", "CallType": "主叫", "PhoneNo": "户籍所在地" }, 
+{ "Month": "3", "Num": "1", "CallType": "主叫", "PhoneNo": "户籍所在地" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F005/F006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月的主叫号码中有一个为非住宅所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月的主叫号码中有一个为非住宅所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月的主叫号码中有一个为非户籍所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "records": [ { "Month": "1", "IsContact": "Y", "CallType": "主叫" }, 
+{ "Month": "2", "IsContact": "Y", "CallType": "主叫" }, 
+{ "Month": "3", "IsContact": "Y", "CallType": "主叫" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月都有主叫紧急联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一个月主叫紧急联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一个月被叫紧急联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未联系过紧急联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "records": [ { "Month": "1", "IsContact": "N", "CallType": "主叫" }, 
+{ "Month": "2", "IsContact": "N", "CallType": "主叫" }, 
+{ "Month": "3", "IsContact": "N", "CallType": "主叫" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "records": [ { "Month": "1", "IsContact": "Y", "CallType": "被叫" }, 
+{ "Month": "2", "IsContact": "N", "CallType": "被叫" }, 
+{ "Month": "3", "IsContact": "N", "CallType": "被叫" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "records": [ { "Month": "1", "IsContact": "Y", "CallType": "主叫" }, 
+{ "Month": "2", "IsContact": "N", "CallType": "主叫" }, 
+{ "Month": "3", "IsContact": "N", "CallType": "主叫" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F007_每月都有主叫紧急联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F007_有一个月主叫紧急联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F007_有一个月被叫紧急联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F007_未联系过紧急联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号段为户籍所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号段为住宅所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号段未匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号段不为户籍所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号段不为住宅所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F008</t>
+  </si>
+  <si>
+    <t>F008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F008_手机号段为户籍所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F008_手机号段不为户籍所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F008_手机号段为住宅所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F008_手机号段不为住宅所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F008_手机号段未匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "IsMatch": "Y", "IsRegister": "Y", 
+"IsHome": "", "IsWork": "" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "IsMatch": "Y", "IsRegister": "N", 
+"IsHome": "", "IsWork": "" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "IsMatch": "Y", "IsRegister": "", 
+"IsHome": "Y", "IsWork": "" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "IsMatch": "Y", "IsRegister": "", 
+"IsHome": "N", "IsWork": "" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "IsMatch": "N", "IsRegister": "", 
+"IsHome": "", "IsWork": "" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "复大医疗", "loanTerm": "1", "loanSubSrc": "FD", "time": "0", "status": "SETTLED" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被叫打断大于90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "AllRecords": "11", 
+"CalledBreak": "10", "CallBreak": "0" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "AllRecords": "11", 
+"CalledBreak": "0", "CallBreak": "10" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主叫打断大于90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被叫打断等于90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F015_被叫打断等于90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F015_被叫打断大于90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F015_主叫打断大于90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U001_17岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U001_18岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U001_45岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U001_46岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在内部黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不在内部黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U002_用户在内部黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U002_用户不在内部黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"custName":"王宁",
+"idNo":"220322199901297363"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"custName":"王宁",
+"idNo":"220322199102297363"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"custName":"王宁",
+"idNo":"222322199102297363"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"custName":"王宁",
+"idNo":"220322199102297362"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在外部黑名单(全部匹配)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在外部黑名单（前后六位匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不在外部黑名单（前六位不匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不在外部黑名单（后六位不匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不在外部黑名单（无数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U003_用户在外部黑名单(全部匹配)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U003_用户在外部黑名单（前后六位匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U003_用户不在外部黑名单（前六位不匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U003_用户不在外部黑名单（后六位不匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U003_用户不在外部黑名单（无数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上笔成功复大医疗的订单在3天内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上笔成功复大医疗的订单不在3天内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上笔成功的触宝订单在3天内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上笔失败的复大医疗订单在3天内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U008_上笔成功复大医疗的订单在3天内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U008_上笔成功复大医疗的订单不在3天内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U008_上笔成功的触宝订单在3天内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U008_上笔失败的复大医疗订单在3天内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月的主叫号码中有一个为工作所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月的主叫号码中有一个为非工作所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月的被叫号码中有一个为工作所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "records": [ { "Month": "1", "Num": "1", "CallType": "主叫", "PhoneNo": "工作所在地" }, 
+{ "Month": "2", "Num": "1", "CallType": "主叫", "PhoneNo": "工作所在地" }, 
+{ "Month": "3", "Num": "1", "CallType": "主叫", "PhoneNo": "工作所在地" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "records": [ { "Month": "1", "Num": "1", "CallType": "主叫", "PhoneNo": "工作所在地" }, 
+{ "Month": "2", "Num": "1", "CallType": "主叫", "PhoneNo": "非工作所在地" }, 
+{ "Month": "3", "Num": "1", "CallType": "主叫", "PhoneNo": "工作所在地" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "records": [ { "Month": "1", "Num": "1", "CallType": "被叫", "PhoneNo": "工作所在地" }, 
+{ "Month": "2", "Num": "1", "CallType": "主叫", "PhoneNo": "非工作所在地" }, 
+{ "Month": "3", "Num": "1", "CallType": "主叫", "PhoneNo": "工作所在地" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准工作认证</t>
+  </si>
+  <si>
+    <t>F005_每月的主叫号码中有一个为工作所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月的主叫号码中有一个为非工作所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F005_每月的主叫号码中有一个为非工作所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月的被叫号码中有一个为工作所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F005_每月的被叫号码中有一个为工作所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号段为工作所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号段不为工作所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "IsMatch": "Y", "IsRegister": "", 
+"IsHome": "", "IsWork": "Y" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "IsMatch": "Y", "IsRegister": "", 
+"IsHome": "", "IsWork": "N" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F008_手机号段为工作所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F008_手机号段不为工作所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一笔cookie相同的申请到复大医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F009_有一笔cookie相同的申请到复大医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职4个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职5个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U005_入职4个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U005_入职5个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动关系为临时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动关系为正式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U006_劳动关系为临时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U006_劳动关系为正式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请辞职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作状态为正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作状态为试用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作状态为申请辞职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作状态为辞职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U009_工作状态为正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U009_工作状态为试用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U009_工作状态为申请辞职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U009_工作状态为辞职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常员工2倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常员工1.99倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试用员工2.5倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试用员工2.49倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U010_正常员工2倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U010_正常员工1.99倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U010_试用员工2.5倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U010_试用员工2.49倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F009/F010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已申请到复大医疗订单cookie不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已申请到复大医疗订单cookie为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "已申请到复大医疗订单cookie为空","time": "0",}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已申请到复大医疗订单cookie相同但不同天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "已申请到复大医疗订单cookie相同但不同天","time": "1",}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F009_已申请到复大医疗订单cookie不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F009_已申请到复大医疗订单cookie为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F009_已申请到复大医疗订单cookie相同但不同天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已申请到复大医疗订单cookie不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "已申请到复大医疗订单cookie相同","time": "0",}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "allCount": "2", "isApply": "Y", "orders": [ { "userinfoNo": "已申请到复大医疗订单cookie相同但不同天", "time": "1" }, { "userinfoNo": "已申请到复大医疗订单cookie相同", "time": "0" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有两笔cookie相同的申请到复大医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有两笔cookie相同的申请到复大医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F010_有两笔cookie相同的申请到复大医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有两笔申请到复大医疗但有一笔cookie不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "已申请到复大医疗订单cookie不同","time": "0",}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "allCount": "2", "isApply": "Y", "orders": [ { "userinfoNo": "已申请到复大医疗订单cookie相同但不同天", "time": "1" }, { "userinfoNo": "已申请到复大医疗订单cookie不同", "time": "0" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有两笔申请到复大医疗但有一笔cookie不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F010_有两笔申请到复大医疗但有一笔cookie不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "复大医疗待还订单待还订单","time": "0",}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有10%的人未还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有低于10%的人未还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有低于10%的人未还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F014_有10%的人未还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F014_有低于10%的人未还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有10%的人已还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有10%的人已还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F014_有10%的人已还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功的牛小宝订单(复大用户)</t>
+  </si>
+  <si>
+    <t>F005_每月的主叫号码中有一个为非住宅所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "records": [ { "Month": "1", "Num": "1", "CallType": "被叫", "PhoneNo": "住宅所在地" }, 
+{ "Month": "2", "Num": "1", "CallType": "被叫", "PhoneNo": "非住宅所在地" }, 
+{ "Month": "3", "Num": "1", "CallType": "被叫", "PhoneNo": "住宅所在地" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "AllRecords": "10", 
+"CalledBreak": "9", "CallBreak": "0" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F002_每个月联系的distinct 手机号等于3个但有非手机号(有成功订单)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F002_每个月联系的distinct 手机号等于3个但有非手机号(有失败订单)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F003_每月被叫总时长正好一分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F003_有一个月主叫总时长小于一分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "复大医疗", "loanTerm": "1", "loanSubSrc": "FD", "time": "3", "repayStatus": "SETTLED","auditStatus":"LOANED" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "复大医疗", "loanTerm": "1", "loanSubSrc": "FD", "time": "4", "repayStatus": "SETTLED","auditStatus":"LOANED" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "触宝", "loanTerm": "1", "loanSubSrc": "CHUBAO", "time": "1", "repayStatus": "SETTLED","auditStatus":"LOANED" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "复大医疗", "loanTerm": "1", "loanSubSrc": "FD", "time": "0", "repayStatus": "","auditStatus":"RETURN" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月的被叫号码中有一个为户籍所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F006_每月的主叫号码中有一个为非户籍所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{ "records": [ { "Month": "1", "Num": "1", "CallType": "主叫", "PhoneNo": "户籍所在地" }, 
 { "Month": "2", "Num": "1", "CallType": "主叫", "PhoneNo": "户籍所在地" }, 
 { "Month": "3", "Num": "1", "CallType": "主叫", "PhoneNo": "户籍所在地" } ] }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每月的主叫号码中有一个为户籍所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "records": [ { "Month": "1", "Num": "1", "CallType": "被叫", "PhoneNo": "户籍所在地" }, 
-{ "Month": "2", "Num": "1", "CallType": "被叫", "PhoneNo": "户籍所在地" }, 
-{ "Month": "3", "Num": "1", "CallType": "被叫", "PhoneNo": "户籍所在地" } ] }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F006_每月的主叫号码中有一个为户籍所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月的被叫号码中有一个为户籍所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F006_每月的被叫号码中有一个为户籍所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一个月没有通话记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一个月没有通话记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F006_有一个月没有通话记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F005_有一个月没有通话记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月的主叫号码中有一个为非户籍所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "records": [ { "Month": "1", "Num": "1", "CallType": "被叫", "PhoneNo": "非住宅所在地" }, 
-{ "Month": "2", "Num": "1", "CallType": "被叫", "PhoneNo": "住宅所在地" }, 
-{ "Month": "3", "Num": "1", "CallType": "被叫", "PhoneNo": "住宅所在地" } ] }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "records": [ { "Month": "1", "Num": "1", "CallType": "主叫", "PhoneNo": "非户籍所在地" }, 
-{ "Month": "2", "Num": "1", "CallType": "主叫", "PhoneNo": "户籍所在地" }, 
-{ "Month": "3", "Num": "1", "CallType": "主叫", "PhoneNo": "户籍所在地" } ] }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F005/F006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月的主叫号码中有一个为非住宅所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月的主叫号码中有一个为非住宅所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F006_每月的被叫号码中有一个为非户籍所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月的主叫号码中有一个为非户籍所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "records": [ { "Month": "1", "IsContact": "Y", "CallType": "主叫" }, 
-{ "Month": "2", "IsContact": "Y", "CallType": "主叫" }, 
-{ "Month": "3", "IsContact": "Y", "CallType": "主叫" } ] }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月都有主叫紧急联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一个月主叫紧急联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一个月被叫紧急联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未联系过紧急联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "records": [ { "Month": "1", "IsContact": "N", "CallType": "主叫" }, 
-{ "Month": "2", "IsContact": "N", "CallType": "主叫" }, 
-{ "Month": "3", "IsContact": "N", "CallType": "主叫" } ] }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "records": [ { "Month": "1", "IsContact": "Y", "CallType": "被叫" }, 
-{ "Month": "2", "IsContact": "N", "CallType": "被叫" }, 
-{ "Month": "3", "IsContact": "N", "CallType": "被叫" } ] }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "records": [ { "Month": "1", "IsContact": "Y", "CallType": "主叫" }, 
-{ "Month": "2", "IsContact": "N", "CallType": "主叫" }, 
-{ "Month": "3", "IsContact": "N", "CallType": "主叫" } ] }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F007_每月都有主叫紧急联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F007_有一个月主叫紧急联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F007_有一个月被叫紧急联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F007_未联系过紧急联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号段为户籍所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号段为住宅所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号段未匹配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号段不为户籍所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号段不为住宅所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F008</t>
-  </si>
-  <si>
-    <t>F008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F008_手机号段为户籍所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F008_手机号段不为户籍所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F008_手机号段为住宅所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F008_手机号段不为住宅所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F008_手机号段未匹配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "IsMatch": "Y", "IsRegister": "Y", 
-"IsHome": "", "IsWork": "" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "IsMatch": "Y", "IsRegister": "N", 
-"IsHome": "", "IsWork": "" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "IsMatch": "Y", "IsRegister": "", 
-"IsHome": "Y", "IsWork": "" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "IsMatch": "Y", "IsRegister": "", 
-"IsHome": "N", "IsWork": "" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "IsMatch": "N", "IsRegister": "", 
-"IsHome": "", "IsWork": "" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "projectName": "复大医疗", "loanTerm": "1", "loanSubSrc": "FD", "time": "0", "status": "SETTLED" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被叫打断大于90%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "AllRecords": "11", 
-"CalledBreak": "10", "CallBreak": "0" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "AllRecords": "11", 
-"CalledBreak": "0", "CallBreak": "10" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主叫打断大于90%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被叫打断等于90%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F015_被叫打断等于90%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F015_被叫打断大于90%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F015_主叫打断大于90%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U001_17岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U001_18岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U001_45岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U001_46岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在内部黑名单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户不在内部黑名单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U002_用户在内部黑名单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U002_用户不在内部黑名单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"custName":"王宁",
-"idNo":"220322199901297363"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"custName":"王宁",
-"idNo":"220322199102297363"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"custName":"王宁",
-"idNo":"222322199102297363"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"custName":"王宁",
-"idNo":"220322199102297362"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在外部黑名单(全部匹配)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在外部黑名单（前后六位匹配）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户不在外部黑名单（前六位不匹配）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户不在外部黑名单（后六位不匹配）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户不在外部黑名单（无数据）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U003_用户在外部黑名单(全部匹配)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U003_用户在外部黑名单（前后六位匹配）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U003_用户不在外部黑名单（前六位不匹配）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U003_用户不在外部黑名单（后六位不匹配）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U003_用户不在外部黑名单（无数据）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "projectName": "复大医疗", "loanTerm": "1", "loanSubSrc": "FD","deviceCode":"999999999","time":"3","status":"SETTLED"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上笔成功复大医疗的订单在3天内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上笔成功复大医疗的订单不在3天内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "projectName": "复大医疗", "loanTerm": "1", "loanSubSrc": "FD","deviceCode":"999999999","time":"4","status":"SETTLED"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上笔成功的触宝订单在3天内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "projectName": "触宝", "loanTerm": "1", "loanSubSrc": "CHUBAO","deviceCode":"999999999","time":"3","status":"return"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上笔失败的复大医疗订单在3天内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "projectName": "复大医疗", "loanTerm": "1", "loanSubSrc": "FD","deviceCode":"999999999","time":"3","status":"return"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U008_上笔成功复大医疗的订单在3天内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U008_上笔成功复大医疗的订单不在3天内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U008_上笔成功的触宝订单在3天内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U008_上笔失败的复大医疗订单在3天内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月的主叫号码中有一个为工作所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月的主叫号码中有一个为非工作所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月的被叫号码中有一个为工作所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "records": [ { "Month": "1", "Num": "1", "CallType": "主叫", "PhoneNo": "工作所在地" }, 
-{ "Month": "2", "Num": "1", "CallType": "主叫", "PhoneNo": "工作所在地" }, 
-{ "Month": "3", "Num": "1", "CallType": "主叫", "PhoneNo": "工作所在地" } ] }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "records": [ { "Month": "1", "Num": "1", "CallType": "主叫", "PhoneNo": "工作所在地" }, 
-{ "Month": "2", "Num": "1", "CallType": "主叫", "PhoneNo": "非工作所在地" }, 
-{ "Month": "3", "Num": "1", "CallType": "主叫", "PhoneNo": "工作所在地" } ] }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "records": [ { "Month": "1", "Num": "1", "CallType": "被叫", "PhoneNo": "工作所在地" }, 
-{ "Month": "2", "Num": "1", "CallType": "主叫", "PhoneNo": "非工作所在地" }, 
-{ "Month": "3", "Num": "1", "CallType": "主叫", "PhoneNo": "工作所在地" } ] }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准工作认证</t>
-  </si>
-  <si>
-    <t>F005_每月的主叫号码中有一个为工作所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月的主叫号码中有一个为非工作所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F005_每月的主叫号码中有一个为非工作所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月的被叫号码中有一个为工作所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F005_每月的被叫号码中有一个为工作所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号段为工作所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号段不为工作所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "IsMatch": "Y", "IsRegister": "", 
-"IsHome": "", "IsWork": "Y" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "IsMatch": "Y", "IsRegister": "", 
-"IsHome": "", "IsWork": "N" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F008_手机号段为工作所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F008_手机号段不为工作所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一笔cookie相同的申请到复大医疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F009_有一笔cookie相同的申请到复大医疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入职4个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入职5个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U005_入职4个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U005_入职5个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳动关系为临时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳动关系为正式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U006_劳动关系为临时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U006_劳动关系为正式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请辞职</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辞职</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作状态为正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作状态为试用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作状态为申请辞职</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作状态为辞职</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U009_工作状态为正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U009_工作状态为试用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U009_工作状态为申请辞职</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U009_工作状态为辞职</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常员工2倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常员工1.99倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试用员工2.5倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试用员工2.49倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U010_正常员工2倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U010_正常员工1.99倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U010_试用员工2.5倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U010_试用员工2.49倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F009/F010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已申请到复大医疗订单cookie不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已申请到复大医疗订单cookie为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "已申请到复大医疗订单cookie为空","time": "0",}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已申请到复大医疗订单cookie相同但不同天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "已申请到复大医疗订单cookie相同但不同天","time": "1",}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F009_已申请到复大医疗订单cookie不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F009_已申请到复大医疗订单cookie为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F009_已申请到复大医疗订单cookie相同但不同天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已申请到复大医疗订单cookie不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "已申请到复大医疗订单cookie相同","time": "0",}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "allCount": "2", "isApply": "Y", "orders": [ { "userinfoNo": "已申请到复大医疗订单cookie相同但不同天", "time": "1" }, { "userinfoNo": "已申请到复大医疗订单cookie相同", "time": "0" } ] }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有两笔cookie相同的申请到复大医疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有两笔cookie相同的申请到复大医疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F010_有两笔cookie相同的申请到复大医疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有两笔申请到复大医疗但有一笔cookie不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "已申请到复大医疗订单cookie不同","time": "0",}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "allCount": "2", "isApply": "Y", "orders": [ { "userinfoNo": "已申请到复大医疗订单cookie相同但不同天", "time": "1" }, { "userinfoNo": "已申请到复大医疗订单cookie不同", "time": "0" } ] }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有两笔申请到复大医疗但有一笔cookie不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F010_有两笔申请到复大医疗但有一笔cookie不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "复大医疗待还订单待还订单","time": "0",}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有10%的人未还款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有低于10%的人未还款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有低于10%的人未还款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F014_有10%的人未还款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F014_有低于10%的人未还款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有10%的人已还款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有10%的人已还款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F014_有10%的人已还款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功的牛小宝订单(复大用户)</t>
-  </si>
-  <si>
-    <t>F005_每月的主叫号码中有一个为非住宅所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "records": [ { "Month": "1", "Num": "1", "CallType": "被叫", "PhoneNo": "住宅所在地" }, 
-{ "Month": "2", "Num": "1", "CallType": "被叫", "PhoneNo": "非住宅所在地" }, 
-{ "Month": "3", "Num": "1", "CallType": "被叫", "PhoneNo": "住宅所在地" } ] }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "AllRecords": "10", 
-"CalledBreak": "9", "CallBreak": "0" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>黑名单工作认证</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1212,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3" tint="-0.499984740745262"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1227,7 +1238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1243,9 +1254,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1559,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="H37" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1581,7 +1589,7 @@
     <col min="15" max="15" width="30.625" customWidth="1"/>
     <col min="16" max="16" width="5.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.5" customWidth="1"/>
-    <col min="18" max="18" width="64.875" customWidth="1"/>
+    <col min="18" max="18" width="67.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1598,52 +1606,52 @@
         <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="27" x14ac:dyDescent="0.15">
@@ -1725,233 +1733,233 @@
     </row>
     <row r="9" spans="1:20" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="54" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="54" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>77</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -1960,13 +1968,13 @@
     </row>
     <row r="30" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1975,13 +1983,13 @@
     </row>
     <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -1990,13 +1998,13 @@
     </row>
     <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -2005,13 +2013,13 @@
     </row>
     <row r="33" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -2020,13 +2028,13 @@
     </row>
     <row r="34" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -2035,13 +2043,13 @@
     </row>
     <row r="35" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -2050,104 +2058,104 @@
     </row>
     <row r="36" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
-        <v>243</v>
+      <c r="A37" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
-        <v>244</v>
+      <c r="A38" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
-        <v>246</v>
+      <c r="A39" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
-        <v>255</v>
+      <c r="A40" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
-        <v>261</v>
+      <c r="A41" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
     <row r="42" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
-        <v>265</v>
+      <c r="A42" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="K42" s="4">
         <v>10</v>
@@ -2156,15 +2164,15 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
-        <v>268</v>
+      <c r="A43" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="K43" s="4">
         <v>20</v>
@@ -2173,15 +2181,15 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="7" t="s">
-        <v>271</v>
+      <c r="A44" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="K44" s="4">
         <v>10</v>
@@ -2191,43 +2199,43 @@
     </row>
     <row r="45" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M48" s="3">
         <v>17</v>
@@ -2235,10 +2243,10 @@
     </row>
     <row r="49" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M49" s="3">
         <v>18</v>
@@ -2246,106 +2254,106 @@
     </row>
     <row r="50" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M50" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M51" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
     </row>
     <row r="55" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
     </row>
     <row r="56" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
     </row>
     <row r="57" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
     </row>
     <row r="58" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
@@ -2353,7 +2361,7 @@
     </row>
     <row r="59" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>19</v>
@@ -2366,7 +2374,7 @@
     </row>
     <row r="60" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>19</v>
@@ -2379,7 +2387,7 @@
     </row>
     <row r="61" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>19</v>
@@ -2387,12 +2395,12 @@
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>19</v>
@@ -2400,106 +2408,106 @@
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R63" s="6" t="s">
-        <v>171</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R64" s="6" t="s">
-        <v>174</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R65" s="6" t="s">
-        <v>176</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R66" s="6" t="s">
-        <v>178</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>19</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>19</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>19</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>19</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>19</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="T71" s="3">
         <v>2000</v>
@@ -2507,13 +2515,13 @@
     </row>
     <row r="72" spans="1:20" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>19</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="T72" s="3">
         <v>1990</v>
@@ -2521,13 +2529,13 @@
     </row>
     <row r="73" spans="1:20" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>19</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="T73" s="3">
         <v>2500</v>
@@ -2535,13 +2543,13 @@
     </row>
     <row r="74" spans="1:20" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>19</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="T74" s="3">
         <v>2490</v>
@@ -2558,8 +2566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2606,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -2628,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>16</v>
@@ -2648,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>23</v>
@@ -2668,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>26</v>
@@ -2688,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>36</v>
@@ -2701,14 +2709,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>28</v>
@@ -2728,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>29</v>
@@ -2741,8 +2749,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>40</v>
+      <c r="A9" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -2762,13 +2770,13 @@
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>29</v>
@@ -2782,13 +2790,13 @@
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -2802,19 +2810,19 @@
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>14</v>
@@ -2822,19 +2830,19 @@
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>17</v>
@@ -2842,27 +2850,27 @@
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>269</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
-        <v>54</v>
+      <c r="A15" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -2871,10 +2879,10 @@
         <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>14</v>
@@ -2882,19 +2890,19 @@
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>270</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>17</v>
@@ -2902,19 +2910,19 @@
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>17</v>
@@ -2922,19 +2930,19 @@
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>14</v>
@@ -2942,19 +2950,19 @@
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>17</v>
@@ -2962,19 +2970,19 @@
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>17</v>
@@ -2982,7 +2990,7 @@
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -2991,10 +2999,10 @@
         <v>39</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>14</v>
@@ -3002,19 +3010,19 @@
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>17</v>
@@ -3022,19 +3030,19 @@
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>17</v>
@@ -3042,19 +3050,19 @@
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>14</v>
@@ -3062,19 +3070,19 @@
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>17</v>
@@ -3082,19 +3090,19 @@
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>17</v>
@@ -3102,19 +3110,19 @@
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>17</v>
@@ -3122,19 +3130,19 @@
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>14</v>
@@ -3142,19 +3150,19 @@
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>17</v>
@@ -3162,19 +3170,19 @@
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>17</v>
@@ -3182,19 +3190,19 @@
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>14</v>
@@ -3202,19 +3210,19 @@
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>17</v>
@@ -3222,19 +3230,19 @@
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>82</v>
+        <v>277</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>17</v>
@@ -3242,19 +3250,19 @@
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>278</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>17</v>
@@ -3262,19 +3270,19 @@
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>14</v>
@@ -3282,19 +3290,19 @@
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B36" s="3">
         <v>0</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>14</v>
@@ -3302,19 +3310,19 @@
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>14</v>
@@ -3322,19 +3330,19 @@
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>17</v>
@@ -3342,19 +3350,19 @@
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>14</v>
@@ -3362,19 +3370,19 @@
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>17</v>
@@ -3382,19 +3390,19 @@
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B41" s="3">
         <v>0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>14</v>
@@ -3402,19 +3410,19 @@
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>17</v>
@@ -3422,19 +3430,19 @@
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>14</v>
@@ -3442,19 +3450,19 @@
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>17</v>
@@ -3462,19 +3470,19 @@
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B45" s="3">
         <v>0</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>17</v>
@@ -3482,79 +3490,79 @@
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
-        <v>248</v>
+      <c r="A47" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="B47" s="3">
         <v>0</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>251</v>
+        <v>179</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
-        <v>249</v>
+      <c r="A48" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="B48" s="3">
         <v>0</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>244</v>
+        <v>179</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
-        <v>250</v>
+      <c r="A49" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="B49" s="3">
         <v>0</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>246</v>
+        <v>179</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>14</v>
@@ -3562,99 +3570,99 @@
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>254</v>
+        <v>179</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
-        <v>262</v>
+      <c r="A51" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="B51" s="3">
         <v>0</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>258</v>
+        <v>179</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="7" t="s">
-        <v>269</v>
+      <c r="A52" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>265</v>
+        <v>179</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>254</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="7" t="s">
-        <v>270</v>
+      <c r="A53" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="B53" s="3">
         <v>0</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>267</v>
+        <v>179</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="7" t="s">
-        <v>273</v>
+      <c r="A54" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="B54" s="3">
         <v>0</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>272</v>
+        <v>179</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>261</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>14</v>
@@ -3662,19 +3670,19 @@
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>14</v>
@@ -3682,19 +3690,19 @@
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>17</v>
@@ -3702,19 +3710,19 @@
     </row>
     <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>14</v>
@@ -3722,19 +3730,19 @@
     </row>
     <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>17</v>
@@ -3742,19 +3750,19 @@
     </row>
     <row r="59" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>14</v>
@@ -3762,19 +3770,19 @@
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>14</v>
@@ -3782,19 +3790,19 @@
     </row>
     <row r="61" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>17</v>
@@ -3802,19 +3810,19 @@
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>17</v>
@@ -3822,19 +3830,19 @@
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>14</v>
@@ -3842,19 +3850,19 @@
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>17</v>
@@ -3862,19 +3870,19 @@
     </row>
     <row r="65" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>17</v>
@@ -3882,19 +3890,19 @@
     </row>
     <row r="66" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>14</v>
@@ -3902,19 +3910,19 @@
     </row>
     <row r="67" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B67" s="3">
         <v>0</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>14</v>
@@ -3922,19 +3930,19 @@
     </row>
     <row r="68" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B68" s="3">
         <v>0</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>14</v>
@@ -3942,19 +3950,19 @@
     </row>
     <row r="69" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>17</v>
@@ -3962,19 +3970,19 @@
     </row>
     <row r="70" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>14</v>
@@ -3982,19 +3990,19 @@
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>17</v>
@@ -4002,19 +4010,19 @@
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B72" s="3">
         <v>0</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>14</v>
@@ -4022,19 +4030,19 @@
     </row>
     <row r="73" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B73" s="3">
         <v>0</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>17</v>
@@ -4042,19 +4050,19 @@
     </row>
     <row r="74" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B74" s="3">
         <v>0</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>14</v>
@@ -4062,19 +4070,19 @@
     </row>
     <row r="75" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B75" s="3">
         <v>0</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>14</v>
@@ -4082,19 +4090,19 @@
     </row>
     <row r="76" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B76" s="3">
         <v>0</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>14</v>
@@ -4102,19 +4110,19 @@
     </row>
     <row r="77" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B77" s="3">
         <v>0</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>14</v>
@@ -4122,19 +4130,19 @@
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B78" s="3">
         <v>0</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>14</v>
@@ -4142,19 +4150,19 @@
     </row>
     <row r="79" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B79" s="3">
         <v>0</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>17</v>
@@ -4162,19 +4170,19 @@
     </row>
     <row r="80" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>17</v>
@@ -4182,19 +4190,19 @@
     </row>
     <row r="81" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B81" s="3">
         <v>0</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>14</v>
@@ -4202,19 +4210,19 @@
     </row>
     <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B82" s="3">
         <v>0</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>17</v>
@@ -4222,19 +4230,19 @@
     </row>
     <row r="83" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B83" s="3">
         <v>0</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>14</v>
@@ -4242,19 +4250,19 @@
     </row>
     <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B84" s="3">
         <v>0</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>17</v>
@@ -4271,7 +4279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/FDYL.xlsx
+++ b/FDYL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="复大医疗数据生成" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="282">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1189,6 +1189,9 @@
   </si>
   <si>
     <t>黑名单工作认证</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -1567,29 +1570,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="53.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.75" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.75" customWidth="1"/>
-    <col min="5" max="5" width="53.875" customWidth="1"/>
-    <col min="6" max="6" width="57.5" customWidth="1"/>
-    <col min="7" max="7" width="78.25" customWidth="1"/>
-    <col min="8" max="8" width="58.5" customWidth="1"/>
-    <col min="9" max="9" width="37.5" customWidth="1"/>
-    <col min="10" max="10" width="43.25" customWidth="1"/>
-    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40" customWidth="1"/>
-    <col min="13" max="13" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.625" customWidth="1"/>
-    <col min="16" max="16" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5" customWidth="1"/>
-    <col min="18" max="18" width="67.875" customWidth="1"/>
+    <col min="1" max="1" width="53.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="58.75" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="71.75" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="53.875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="57.5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="78.25" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="37.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="43.25" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="40" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="5.5" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="67.875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2566,18 +2569,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:B84"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="71.875" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="53.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -4188,7 +4191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>227</v>
       </c>
@@ -4208,7 +4211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>228</v>
       </c>
@@ -4227,8 +4230,14 @@
       <c r="F82" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>229</v>
       </c>
@@ -4248,7 +4257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>230</v>
       </c>

--- a/FDYL.xlsx
+++ b/FDYL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="复大医疗数据生成" sheetId="1" r:id="rId1"/>
@@ -2569,8 +2569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2756,7 +2756,7 @@
         <v>267</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>39</v>
